--- a/medicine/Enfance/Émilie_Vast/Émilie_Vast.xlsx
+++ b/medicine/Enfance/Émilie_Vast/Émilie_Vast.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89milie_Vast</t>
+          <t>Émilie_Vast</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Émilie Vast, née en 1978 à Épernay (Marne), est une plasticienne, illustratrice et autrice de littérature jeunesse française.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89milie_Vast</t>
+          <t>Émilie_Vast</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Émilie Vast est une illustratrice, autrice et plasticienne[1]. Née en 1978 à Épernay, elle étudie l'art, la photographie à l’École supérieure d’art et de design de Reims. Après l'obtention de son DNSEP, elle devient temporairement graphiste. L'illustration découle peu à peu de ce métier qui la pousse à expérimenter le dessin vectoriel. La rencontre avec l'autrice Anne Mulpas et la réalisation de leur premier livre ensemble, lui donne envie de persévérer dans l'illustration jeunesse. L'écriture viendra ensuite sous les conseils de son éditrice. La plupart de ses livres sont édités chez l'éditeur nantais MeMo. Elle s'inspire de la nature pour créer ses livres : herbiers et ouvrages sur la botanique[2],[3],[4]. Le noir occupe une place importante dans ses livres[5].
-Certains de ses albums sont traduits dans plusieurs pays, notamment aux États-Unis [6], en Allemagne [7], au Mexique, en Chine, en Corée ou en Italie[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Émilie Vast est une illustratrice, autrice et plasticienne. Née en 1978 à Épernay, elle étudie l'art, la photographie à l’École supérieure d’art et de design de Reims. Après l'obtention de son DNSEP, elle devient temporairement graphiste. L'illustration découle peu à peu de ce métier qui la pousse à expérimenter le dessin vectoriel. La rencontre avec l'autrice Anne Mulpas et la réalisation de leur premier livre ensemble, lui donne envie de persévérer dans l'illustration jeunesse. L'écriture viendra ensuite sous les conseils de son éditrice. La plupart de ses livres sont édités chez l'éditeur nantais MeMo. Elle s'inspire de la nature pour créer ses livres : herbiers et ouvrages sur la botanique. Le noir occupe une place importante dans ses livres.
+Certains de ses albums sont traduits dans plusieurs pays, notamment aux États-Unis , en Allemagne , au Mexique, en Chine, en Corée ou en Italie.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89milie_Vast</t>
+          <t>Émilie_Vast</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,19 +557,21 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Laure Igami : petite fille en papier plié, texte de Anne Mulpas, ill. de Émilie Vast, éd. les Portes du monde, 2005
 Korokoro, Skyfish graphix, 2007 ; rééd. Autrement, 2011
 Koré-no, l'enfant hirondelle, MeMo, 2008
-L’Herbier, arbres feuillus d’Europe, éditions MeMo, 2009  Mention non-fiction Prix BolognaRagazzi 2010 de la foire du livre de jeunesse de Bologne[9] 
+L’Herbier, arbres feuillus d’Europe, éditions MeMo, 2009  Mention non-fiction Prix BolognaRagazzi 2010 de la foire du livre de jeunesse de Bologne 
 L’Herbier, petite flore des bois d’Europe, MeMo, 2010
 L’Herbier, plantes sauvages des villes, MeMo, 2011
 Neige : le blanc et les couleurs, MeMo, 2011
 Océan : le noir et les couleurs, MeMo, 2011
 Il était un arbre, MeMo, 2012
 Petit à Petit, MeMo, 2013
-En t'attendant, MeMo, 2013[10]
+En t'attendant, MeMo, 2013
 Le Chant de Colombine, MeMo, 2014
 Couac, d'après le spectacle d'Angélique Friand, MeMo, 2015
 Le Secret, MeMo, 2015
@@ -564,8 +580,8 @@
 De maman en maman, MeMo, 2016
 Alphabet des plantes et des animaux, MeMo, 2017
 Abeille et épeire, MeMo, 2017
-Moi, j'ai peur du loup, MeMo, 2018[11]
-Plantes vagabondes, MeMo, 2018[12]
+Moi, j'ai peur du loup, MeMo, 2018
+Plantes vagabondes, MeMo, 2018
 Quelque chose de merveilleux, texte de Shin Sun-Jae, MeMo, 2019 (2012 en Corée)
 Jusqu'en haut, MeMo, 2019
 Engloutis!, MeMo, 2019
@@ -588,7 +604,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89milie_Vast</t>
+          <t>Émilie_Vast</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -606,14 +622,16 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Mention non-fiction Prix BolognaRagazzi 2010 de la foire du livre de jeunesse de Bologne pour L’herbier, arbres feuillus d’Europe[9]
-Prix des libraires Produit en Bretagne 2018 pour Plantes vagabondes[13]
-Sélection Prix Sorcières 2019 pour Moi, j'ai peur du loup[11]
-Prix Pitchou 2019 pour Moi, j'ai peur du loup[14],[15]
- Prix Bernard Versele 2021 pour Moi, j'ai peur du loup[16]
-Figurent dans la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)[17] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mention non-fiction Prix BolognaRagazzi 2010 de la foire du livre de jeunesse de Bologne pour L’herbier, arbres feuillus d’Europe
+Prix des libraires Produit en Bretagne 2018 pour Plantes vagabondes
+Sélection Prix Sorcières 2019 pour Moi, j'ai peur du loup
+Prix Pitchou 2019 pour Moi, j'ai peur du loup,
+ Prix Bernard Versele 2021 pour Moi, j'ai peur du loup
+Figurent dans la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF) :
 L'Herbier, arbres feuillus d'Europe, Memo, 2009
 Il était un arbre, MeMo, 2012
 Couac, d'après le spectacle d'Angélique Friand, MeMo, 2015
